--- a/base_dir/test_folder_xlsx/result_file.xlsx
+++ b/base_dir/test_folder_xlsx/result_file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Line Number</t>
   </si>
@@ -26,7 +26,25 @@
     <t>Actual</t>
   </si>
   <si>
+    <t>id;name</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1;Aingaran</t>
+  </si>
+  <si>
+    <t>1;Aingaran Elango</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4;Someone</t>
+  </si>
+  <si>
+    <t>6;Avinash</t>
   </si>
 </sst>
 </file>
@@ -362,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,6 +407,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
